--- a/요구명세서.xlsx
+++ b/요구명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,37 @@
   </si>
   <si>
     <t>앱 사용자는 자신이 구매할 물품의 수량을 선택할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIA05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIAF005.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIAF005.002</t>
+  </si>
+  <si>
+    <t>물품위치확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최단거리확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 사용자는 마트 지도에서 자신이 구매할 물품들의 위치를 확인 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 사용자는 마트 입구에서 물품의 위치를 거쳐 카운터까지의 최단거리를 확인 할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +621,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -891,25 +922,51 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>

--- a/요구명세서.xlsx
+++ b/요구명세서.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,80 @@
   </si>
   <si>
     <t>앱 사용자는 마트 입구에서 물품의 위치를 거쳐 카운터까지의 최단거리를 확인 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MID01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB서버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIDF001.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIDF001.002</t>
+  </si>
+  <si>
+    <t>가용성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마트에 존재하는 DB서버와 연동해 물품정보를 가져올 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져온 정보에 새로운 정보를 추가 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIZ01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIZF001.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIZF001.002</t>
+  </si>
+  <si>
+    <t>데이터 백업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된 데이터는 중요한 부분이므로 데이터를 백업해 놓을 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB서버의 데이터는 마트DB서버 내용도 있으므로 쉽게 누출되서는 안된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -301,7 +375,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,9 +386,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -969,11 +1040,98 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/요구명세서.xlsx
+++ b/요구명세서.xlsx
@@ -692,7 +692,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
